--- a/data/unchecked/manual_collect/china/henan/henanCaseStatistics_20200227.xlsx
+++ b/data/unchecked/manual_collect/china/henan/henanCaseStatistics_20200227.xlsx
@@ -1,16 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\合并数据\COVID-19\data\unchecked\manual_collect\china\henan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4DE40C-15EB-44E4-B46B-EADE1ABA01AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
     <sheet name="中国各省市区县数据" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">新数据表!$A$1:$AN$56</definedName>
     <definedName name="阿坝藏族羌族自治州">中国各省市区县数据!$C$2158:$C$2170</definedName>
     <definedName name="阿克苏地区">中国各省市区县数据!$C$2796:$C$2804</definedName>
     <definedName name="阿拉善盟">中国各省市区县数据!$C$419:$C$421</definedName>
@@ -10275,16 +10282,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -10348,7 +10351,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10356,146 +10359,11 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10514,194 +10382,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -10709,249 +10391,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11003,64 +10446,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -11318,63 +10718,64 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AN56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V49" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z2:Z56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.9090909090909" style="12" customWidth="1"/>
-    <col min="2" max="2" width="9.28787878787879" style="12" customWidth="1"/>
-    <col min="3" max="3" width="14.6060606060606" style="13" customWidth="1"/>
-    <col min="4" max="4" width="17.3333333333333" style="12" customWidth="1"/>
-    <col min="5" max="5" width="5.09090909090909" style="12" customWidth="1"/>
-    <col min="6" max="6" width="7.93939393939394" style="12" customWidth="1"/>
-    <col min="7" max="7" width="6.79545454545455" style="12" customWidth="1"/>
-    <col min="8" max="8" width="4.91666666666667" style="12" customWidth="1"/>
-    <col min="9" max="9" width="5.25" style="12" customWidth="1"/>
-    <col min="10" max="10" width="6.72727272727273" style="12" customWidth="1"/>
-    <col min="11" max="11" width="6.26515151515152" style="12" customWidth="1"/>
-    <col min="12" max="12" width="5.92424242424242" style="12" customWidth="1"/>
-    <col min="13" max="13" width="6.52272727272727" style="12" customWidth="1"/>
-    <col min="14" max="14" width="5.25" style="12" customWidth="1"/>
-    <col min="15" max="15" width="6.73484848484848" style="12" customWidth="1"/>
-    <col min="16" max="16" width="11.3939393939394" style="12" customWidth="1"/>
-    <col min="17" max="17" width="7.51515151515152" style="12" customWidth="1"/>
-    <col min="18" max="18" width="9.57575757575758" style="12" customWidth="1"/>
-    <col min="19" max="19" width="22.0151515151515" style="12" customWidth="1"/>
-    <col min="20" max="20" width="31.9090909090909" style="13" customWidth="1"/>
+    <col min="1" max="1" width="11.921875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.3046875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="14.61328125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="17.3046875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="5.07421875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="7.921875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="6.765625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="4.921875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="5.23046875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="6.69140625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="6.23046875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="5.921875" style="12" customWidth="1"/>
+    <col min="13" max="13" width="6.53515625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="5.23046875" style="12" customWidth="1"/>
+    <col min="15" max="15" width="6.765625" style="12" customWidth="1"/>
+    <col min="16" max="16" width="11.3828125" style="12" customWidth="1"/>
+    <col min="17" max="17" width="7.53515625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="9.53515625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="22" style="12" customWidth="1"/>
+    <col min="20" max="20" width="31.921875" style="13" customWidth="1"/>
     <col min="21" max="21" width="18" style="12" customWidth="1"/>
-    <col min="22" max="22" width="10.6363636363636" style="12" customWidth="1"/>
-    <col min="23" max="23" width="31.9090909090909" style="12" customWidth="1"/>
-    <col min="24" max="24" width="16.0909090909091" style="12" customWidth="1"/>
-    <col min="25" max="25" width="7.66666666666667" style="12" customWidth="1"/>
-    <col min="26" max="26" width="18.6060606060606" style="12" customWidth="1"/>
-    <col min="27" max="27" width="21.9090909090909" style="12" customWidth="1"/>
-    <col min="28" max="28" width="20.9090909090909" style="12" customWidth="1"/>
-    <col min="29" max="29" width="25.4545454545455" style="12" customWidth="1"/>
-    <col min="30" max="30" width="31.9090909090909" style="12" customWidth="1"/>
-    <col min="31" max="31" width="21.9090909090909" style="12" customWidth="1"/>
-    <col min="32" max="32" width="24.4545454545455" style="12" customWidth="1"/>
+    <col min="22" max="22" width="10.61328125" style="12" customWidth="1"/>
+    <col min="23" max="23" width="31.921875" style="12" customWidth="1"/>
+    <col min="24" max="24" width="16.07421875" style="12" customWidth="1"/>
+    <col min="25" max="25" width="7.69140625" style="12" customWidth="1"/>
+    <col min="26" max="26" width="18.61328125" style="12" customWidth="1"/>
+    <col min="27" max="27" width="21.921875" style="12" customWidth="1"/>
+    <col min="28" max="28" width="20.921875" style="12" customWidth="1"/>
+    <col min="29" max="29" width="25.4609375" style="12" customWidth="1"/>
+    <col min="30" max="30" width="31.921875" style="12" customWidth="1"/>
+    <col min="31" max="31" width="21.921875" style="12" customWidth="1"/>
+    <col min="32" max="32" width="24.4609375" style="12" customWidth="1"/>
     <col min="33" max="33" width="31" style="12" customWidth="1"/>
-    <col min="34" max="34" width="8.90909090909091" style="12" customWidth="1"/>
-    <col min="35" max="36" width="31.9090909090909" style="12" customWidth="1"/>
-    <col min="37" max="37" width="21.9090909090909" style="12" customWidth="1"/>
-    <col min="38" max="38" width="24.4545454545455" style="12" customWidth="1"/>
+    <col min="34" max="34" width="8.921875" style="12" customWidth="1"/>
+    <col min="35" max="36" width="31.921875" style="12" customWidth="1"/>
+    <col min="37" max="37" width="21.921875" style="12" customWidth="1"/>
+    <col min="38" max="38" width="24.4609375" style="12" customWidth="1"/>
     <col min="39" max="39" width="31" style="12" customWidth="1"/>
-    <col min="40" max="40" width="5.09090909090909" style="12" customWidth="1"/>
-    <col min="41" max="16384" width="10.9090909090909" style="12"/>
+    <col min="40" max="40" width="5.07421875" style="12" customWidth="1"/>
+    <col min="41" max="16384" width="10.921875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" ht="15" customHeight="1" spans="1:40">
+    <row r="1" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -11496,7 +10897,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="2" spans="1:40" ht="20" hidden="1" customHeight="1">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -11544,7 +10945,7 @@
       </c>
       <c r="W2" s="13"/>
       <c r="Z2" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA2" s="12" t="s">
         <v>47</v>
@@ -11556,7 +10957,7 @@
       <c r="AI2" s="13"/>
       <c r="AJ2" s="13"/>
     </row>
-    <row r="3" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="3" spans="1:40" ht="20" customHeight="1">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -11602,7 +11003,7 @@
       </c>
       <c r="W3" s="13"/>
       <c r="Z3" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA3" s="12" t="s">
         <v>47</v>
@@ -11614,7 +11015,7 @@
       <c r="AI3" s="13"/>
       <c r="AJ3" s="13"/>
     </row>
-    <row r="4" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="4" spans="1:40" ht="20" hidden="1" customHeight="1">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -11662,7 +11063,7 @@
       </c>
       <c r="W4" s="13"/>
       <c r="Z4" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA4" s="12" t="s">
         <v>47</v>
@@ -11674,7 +11075,7 @@
       <c r="AI4" s="13"/>
       <c r="AJ4" s="13"/>
     </row>
-    <row r="5" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="5" spans="1:40" ht="20" customHeight="1">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -11702,7 +11103,7 @@
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
       <c r="M5" s="16">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
@@ -11720,7 +11121,7 @@
       </c>
       <c r="W5" s="13"/>
       <c r="Z5" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA5" s="12" t="s">
         <v>47</v>
@@ -11732,7 +11133,7 @@
       <c r="AI5" s="13"/>
       <c r="AJ5" s="13"/>
     </row>
-    <row r="6" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="6" spans="1:40" ht="20" hidden="1" customHeight="1">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -11780,7 +11181,7 @@
       </c>
       <c r="W6" s="13"/>
       <c r="Z6" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA6" s="12" t="s">
         <v>47</v>
@@ -11792,7 +11193,7 @@
       <c r="AI6" s="13"/>
       <c r="AJ6" s="13"/>
     </row>
-    <row r="7" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="7" spans="1:40" ht="20" customHeight="1">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -11838,7 +11239,7 @@
       </c>
       <c r="W7" s="13"/>
       <c r="Z7" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA7" s="12" t="s">
         <v>47</v>
@@ -11850,7 +11251,7 @@
       <c r="AI7" s="13"/>
       <c r="AJ7" s="13"/>
     </row>
-    <row r="8" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="8" spans="1:40" ht="20" hidden="1" customHeight="1">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -11898,7 +11299,7 @@
       </c>
       <c r="W8" s="13"/>
       <c r="Z8" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA8" s="12" t="s">
         <v>47</v>
@@ -11910,7 +11311,7 @@
       <c r="AI8" s="13"/>
       <c r="AJ8" s="13"/>
     </row>
-    <row r="9" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="9" spans="1:40" ht="20" customHeight="1">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -11958,7 +11359,7 @@
       </c>
       <c r="W9" s="13"/>
       <c r="Z9" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA9" s="12" t="s">
         <v>47</v>
@@ -11970,7 +11371,7 @@
       <c r="AI9" s="13"/>
       <c r="AJ9" s="13"/>
     </row>
-    <row r="10" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="10" spans="1:40" ht="20" hidden="1" customHeight="1">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -12018,7 +11419,7 @@
       </c>
       <c r="W10" s="13"/>
       <c r="Z10" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA10" s="12" t="s">
         <v>47</v>
@@ -12030,7 +11431,7 @@
       <c r="AI10" s="13"/>
       <c r="AJ10" s="13"/>
     </row>
-    <row r="11" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="11" spans="1:40" ht="20" customHeight="1">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -12076,7 +11477,7 @@
       </c>
       <c r="W11" s="13"/>
       <c r="Z11" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA11" s="12" t="s">
         <v>47</v>
@@ -12088,7 +11489,7 @@
       <c r="AI11" s="13"/>
       <c r="AJ11" s="13"/>
     </row>
-    <row r="12" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="12" spans="1:40" ht="20" hidden="1" customHeight="1">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -12136,7 +11537,7 @@
       </c>
       <c r="W12" s="13"/>
       <c r="Z12" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA12" s="12" t="s">
         <v>47</v>
@@ -12148,7 +11549,7 @@
       <c r="AI12" s="13"/>
       <c r="AJ12" s="13"/>
     </row>
-    <row r="13" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="13" spans="1:40" ht="20" customHeight="1">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -12194,7 +11595,7 @@
       </c>
       <c r="W13" s="13"/>
       <c r="Z13" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA13" s="12" t="s">
         <v>47</v>
@@ -12206,7 +11607,7 @@
       <c r="AI13" s="13"/>
       <c r="AJ13" s="13"/>
     </row>
-    <row r="14" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="14" spans="1:40" ht="20" hidden="1" customHeight="1">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -12254,7 +11655,7 @@
       </c>
       <c r="W14" s="13"/>
       <c r="Z14" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA14" s="12" t="s">
         <v>47</v>
@@ -12266,7 +11667,7 @@
       <c r="AI14" s="13"/>
       <c r="AJ14" s="13"/>
     </row>
-    <row r="15" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="15" spans="1:40" ht="20" customHeight="1">
       <c r="A15" s="16">
         <v>14</v>
       </c>
@@ -12312,7 +11713,7 @@
       </c>
       <c r="W15" s="13"/>
       <c r="Z15" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA15" s="12" t="s">
         <v>47</v>
@@ -12324,7 +11725,7 @@
       <c r="AI15" s="13"/>
       <c r="AJ15" s="13"/>
     </row>
-    <row r="16" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="16" spans="1:40" ht="20" hidden="1" customHeight="1">
       <c r="A16" s="16">
         <v>15</v>
       </c>
@@ -12372,7 +11773,7 @@
       </c>
       <c r="W16" s="13"/>
       <c r="Z16" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA16" s="12" t="s">
         <v>47</v>
@@ -12384,7 +11785,7 @@
       <c r="AI16" s="13"/>
       <c r="AJ16" s="13"/>
     </row>
-    <row r="17" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="17" spans="1:36" ht="20" hidden="1" customHeight="1">
       <c r="A17" s="16">
         <v>16</v>
       </c>
@@ -12432,7 +11833,7 @@
       </c>
       <c r="W17" s="13"/>
       <c r="Z17" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA17" s="12" t="s">
         <v>47</v>
@@ -12444,7 +11845,7 @@
       <c r="AI17" s="13"/>
       <c r="AJ17" s="13"/>
     </row>
-    <row r="18" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="18" spans="1:36" ht="20" hidden="1" customHeight="1">
       <c r="A18" s="16">
         <v>17</v>
       </c>
@@ -12492,7 +11893,7 @@
       </c>
       <c r="W18" s="13"/>
       <c r="Z18" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA18" s="12" t="s">
         <v>47</v>
@@ -12504,7 +11905,7 @@
       <c r="AI18" s="13"/>
       <c r="AJ18" s="13"/>
     </row>
-    <row r="19" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="19" spans="1:36" ht="20" hidden="1" customHeight="1">
       <c r="A19" s="16">
         <v>18</v>
       </c>
@@ -12552,7 +11953,7 @@
       </c>
       <c r="W19" s="13"/>
       <c r="Z19" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA19" s="12" t="s">
         <v>47</v>
@@ -12564,7 +11965,7 @@
       <c r="AI19" s="13"/>
       <c r="AJ19" s="13"/>
     </row>
-    <row r="20" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="20" spans="1:36" ht="20" hidden="1" customHeight="1">
       <c r="A20" s="16">
         <v>19</v>
       </c>
@@ -12612,7 +12013,7 @@
       </c>
       <c r="W20" s="13"/>
       <c r="Z20" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA20" s="12" t="s">
         <v>47</v>
@@ -12624,7 +12025,7 @@
       <c r="AI20" s="13"/>
       <c r="AJ20" s="13"/>
     </row>
-    <row r="21" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="21" spans="1:36" ht="20" hidden="1" customHeight="1">
       <c r="A21" s="16">
         <v>20</v>
       </c>
@@ -12672,7 +12073,7 @@
       </c>
       <c r="W21" s="13"/>
       <c r="Z21" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA21" s="12" t="s">
         <v>47</v>
@@ -12684,7 +12085,7 @@
       <c r="AI21" s="13"/>
       <c r="AJ21" s="13"/>
     </row>
-    <row r="22" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="22" spans="1:36" ht="20" hidden="1" customHeight="1">
       <c r="A22" s="16">
         <v>21</v>
       </c>
@@ -12732,7 +12133,7 @@
       </c>
       <c r="W22" s="13"/>
       <c r="Z22" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA22" s="12" t="s">
         <v>47</v>
@@ -12744,7 +12145,7 @@
       <c r="AI22" s="13"/>
       <c r="AJ22" s="13"/>
     </row>
-    <row r="23" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="23" spans="1:36" ht="20" hidden="1" customHeight="1">
       <c r="A23" s="16">
         <v>22</v>
       </c>
@@ -12792,7 +12193,7 @@
       </c>
       <c r="W23" s="13"/>
       <c r="Z23" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA23" s="12" t="s">
         <v>47</v>
@@ -12804,7 +12205,7 @@
       <c r="AI23" s="13"/>
       <c r="AJ23" s="13"/>
     </row>
-    <row r="24" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="24" spans="1:36" ht="20" hidden="1" customHeight="1">
       <c r="A24" s="16">
         <v>23</v>
       </c>
@@ -12852,7 +12253,7 @@
       </c>
       <c r="W24" s="13"/>
       <c r="Z24" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA24" s="12" t="s">
         <v>47</v>
@@ -12864,7 +12265,7 @@
       <c r="AI24" s="13"/>
       <c r="AJ24" s="13"/>
     </row>
-    <row r="25" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="25" spans="1:36" ht="20" hidden="1" customHeight="1">
       <c r="A25" s="16">
         <v>24</v>
       </c>
@@ -12912,7 +12313,7 @@
       </c>
       <c r="W25" s="13"/>
       <c r="Z25" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA25" s="12" t="s">
         <v>47</v>
@@ -12924,7 +12325,7 @@
       <c r="AI25" s="13"/>
       <c r="AJ25" s="13"/>
     </row>
-    <row r="26" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="26" spans="1:36" ht="20" hidden="1" customHeight="1">
       <c r="A26" s="16">
         <v>25</v>
       </c>
@@ -12972,7 +12373,7 @@
       </c>
       <c r="W26" s="13"/>
       <c r="Z26" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA26" s="12" t="s">
         <v>47</v>
@@ -12984,7 +12385,7 @@
       <c r="AI26" s="13"/>
       <c r="AJ26" s="13"/>
     </row>
-    <row r="27" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="27" spans="1:36" ht="20" customHeight="1">
       <c r="A27" s="16">
         <v>26</v>
       </c>
@@ -13032,7 +12433,7 @@
       </c>
       <c r="W27" s="13"/>
       <c r="Z27" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA27" s="12" t="s">
         <v>47</v>
@@ -13044,7 +12445,7 @@
       <c r="AI27" s="13"/>
       <c r="AJ27" s="13"/>
     </row>
-    <row r="28" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="28" spans="1:36" ht="20" hidden="1" customHeight="1">
       <c r="A28" s="16">
         <v>27</v>
       </c>
@@ -13092,7 +12493,7 @@
       </c>
       <c r="W28" s="13"/>
       <c r="Z28" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA28" s="12" t="s">
         <v>47</v>
@@ -13104,7 +12505,7 @@
       <c r="AI28" s="13"/>
       <c r="AJ28" s="13"/>
     </row>
-    <row r="29" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="29" spans="1:36" ht="20" customHeight="1">
       <c r="A29" s="16">
         <v>28</v>
       </c>
@@ -13150,7 +12551,7 @@
       </c>
       <c r="W29" s="13"/>
       <c r="Z29" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA29" s="12" t="s">
         <v>47</v>
@@ -13162,7 +12563,7 @@
       <c r="AI29" s="13"/>
       <c r="AJ29" s="13"/>
     </row>
-    <row r="30" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="30" spans="1:36" ht="20" customHeight="1">
       <c r="A30" s="16">
         <v>29</v>
       </c>
@@ -13208,7 +12609,7 @@
       </c>
       <c r="W30" s="13"/>
       <c r="Z30" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA30" s="12" t="s">
         <v>47</v>
@@ -13220,7 +12621,7 @@
       <c r="AI30" s="13"/>
       <c r="AJ30" s="13"/>
     </row>
-    <row r="31" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="31" spans="1:36" ht="20" customHeight="1">
       <c r="A31" s="16">
         <v>30</v>
       </c>
@@ -13266,7 +12667,7 @@
       </c>
       <c r="W31" s="13"/>
       <c r="Z31" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA31" s="12" t="s">
         <v>47</v>
@@ -13278,7 +12679,7 @@
       <c r="AI31" s="13"/>
       <c r="AJ31" s="13"/>
     </row>
-    <row r="32" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="32" spans="1:36" ht="20" hidden="1" customHeight="1">
       <c r="A32" s="16">
         <v>31</v>
       </c>
@@ -13326,7 +12727,7 @@
       </c>
       <c r="W32" s="13"/>
       <c r="Z32" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA32" s="12" t="s">
         <v>47</v>
@@ -13338,7 +12739,7 @@
       <c r="AI32" s="13"/>
       <c r="AJ32" s="13"/>
     </row>
-    <row r="33" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="33" spans="1:36" ht="20" hidden="1" customHeight="1">
       <c r="A33" s="16">
         <v>32</v>
       </c>
@@ -13386,7 +12787,7 @@
       </c>
       <c r="W33" s="13"/>
       <c r="Z33" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA33" s="12" t="s">
         <v>47</v>
@@ -13398,7 +12799,7 @@
       <c r="AI33" s="13"/>
       <c r="AJ33" s="13"/>
     </row>
-    <row r="34" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="34" spans="1:36" ht="20" hidden="1" customHeight="1">
       <c r="A34" s="16">
         <v>33</v>
       </c>
@@ -13446,7 +12847,7 @@
       </c>
       <c r="W34" s="13"/>
       <c r="Z34" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA34" s="12" t="s">
         <v>47</v>
@@ -13458,7 +12859,7 @@
       <c r="AI34" s="13"/>
       <c r="AJ34" s="13"/>
     </row>
-    <row r="35" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="35" spans="1:36" ht="20" hidden="1" customHeight="1">
       <c r="A35" s="16">
         <v>34</v>
       </c>
@@ -13506,7 +12907,7 @@
       </c>
       <c r="W35" s="13"/>
       <c r="Z35" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA35" s="12" t="s">
         <v>47</v>
@@ -13518,7 +12919,7 @@
       <c r="AI35" s="13"/>
       <c r="AJ35" s="13"/>
     </row>
-    <row r="36" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="36" spans="1:36" ht="20" hidden="1" customHeight="1">
       <c r="A36" s="16">
         <v>35</v>
       </c>
@@ -13566,7 +12967,7 @@
       </c>
       <c r="W36" s="13"/>
       <c r="Z36" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA36" s="12" t="s">
         <v>47</v>
@@ -13578,7 +12979,7 @@
       <c r="AI36" s="13"/>
       <c r="AJ36" s="13"/>
     </row>
-    <row r="37" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="37" spans="1:36" ht="20" hidden="1" customHeight="1">
       <c r="A37" s="16">
         <v>36</v>
       </c>
@@ -13626,7 +13027,7 @@
       </c>
       <c r="W37" s="13"/>
       <c r="Z37" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA37" s="12" t="s">
         <v>47</v>
@@ -13638,7 +13039,7 @@
       <c r="AI37" s="13"/>
       <c r="AJ37" s="13"/>
     </row>
-    <row r="38" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="38" spans="1:36" ht="20" hidden="1" customHeight="1">
       <c r="A38" s="16">
         <v>37</v>
       </c>
@@ -13686,7 +13087,7 @@
       </c>
       <c r="W38" s="13"/>
       <c r="Z38" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA38" s="12" t="s">
         <v>47</v>
@@ -13698,7 +13099,7 @@
       <c r="AI38" s="13"/>
       <c r="AJ38" s="13"/>
     </row>
-    <row r="39" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="39" spans="1:36" ht="20" hidden="1" customHeight="1">
       <c r="A39" s="16">
         <v>38</v>
       </c>
@@ -13746,7 +13147,7 @@
       </c>
       <c r="W39" s="13"/>
       <c r="Z39" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA39" s="12" t="s">
         <v>47</v>
@@ -13758,7 +13159,7 @@
       <c r="AI39" s="13"/>
       <c r="AJ39" s="13"/>
     </row>
-    <row r="40" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="40" spans="1:36" ht="20" hidden="1" customHeight="1">
       <c r="A40" s="16">
         <v>38</v>
       </c>
@@ -13806,7 +13207,7 @@
       </c>
       <c r="W40" s="13"/>
       <c r="Z40" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA40" s="12" t="s">
         <v>47</v>
@@ -13818,7 +13219,7 @@
       <c r="AI40" s="13"/>
       <c r="AJ40" s="13"/>
     </row>
-    <row r="41" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="41" spans="1:36" ht="20" customHeight="1">
       <c r="A41" s="16">
         <v>39</v>
       </c>
@@ -13864,7 +13265,7 @@
       </c>
       <c r="W41" s="13"/>
       <c r="Z41" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA41" s="12" t="s">
         <v>47</v>
@@ -13876,7 +13277,7 @@
       <c r="AI41" s="13"/>
       <c r="AJ41" s="13"/>
     </row>
-    <row r="42" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="42" spans="1:36" ht="20" customHeight="1">
       <c r="A42" s="16">
         <v>40</v>
       </c>
@@ -13922,7 +13323,7 @@
       </c>
       <c r="W42" s="13"/>
       <c r="Z42" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA42" s="12" t="s">
         <v>47</v>
@@ -13934,7 +13335,7 @@
       <c r="AI42" s="13"/>
       <c r="AJ42" s="13"/>
     </row>
-    <row r="43" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="43" spans="1:36" ht="20" hidden="1" customHeight="1">
       <c r="A43" s="16">
         <v>41</v>
       </c>
@@ -13984,7 +13385,7 @@
       </c>
       <c r="W43" s="13"/>
       <c r="Z43" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA43" s="12" t="s">
         <v>47</v>
@@ -13996,7 +13397,7 @@
       <c r="AI43" s="13"/>
       <c r="AJ43" s="13"/>
     </row>
-    <row r="44" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="44" spans="1:36" ht="20" hidden="1" customHeight="1">
       <c r="A44" s="16">
         <v>42</v>
       </c>
@@ -14046,7 +13447,7 @@
       </c>
       <c r="W44" s="13"/>
       <c r="Z44" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA44" s="12" t="s">
         <v>47</v>
@@ -14058,7 +13459,7 @@
       <c r="AI44" s="13"/>
       <c r="AJ44" s="13"/>
     </row>
-    <row r="45" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="45" spans="1:36" ht="20" hidden="1" customHeight="1">
       <c r="A45" s="16">
         <v>43</v>
       </c>
@@ -14108,7 +13509,7 @@
       </c>
       <c r="W45" s="13"/>
       <c r="Z45" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA45" s="12" t="s">
         <v>47</v>
@@ -14120,7 +13521,7 @@
       <c r="AI45" s="13"/>
       <c r="AJ45" s="13"/>
     </row>
-    <row r="46" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="46" spans="1:36" ht="20" hidden="1" customHeight="1">
       <c r="A46" s="16">
         <v>44</v>
       </c>
@@ -14170,7 +13571,7 @@
       </c>
       <c r="W46" s="13"/>
       <c r="Z46" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA46" s="12" t="s">
         <v>47</v>
@@ -14182,7 +13583,7 @@
       <c r="AI46" s="13"/>
       <c r="AJ46" s="13"/>
     </row>
-    <row r="47" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="47" spans="1:36" ht="20" hidden="1" customHeight="1">
       <c r="A47" s="16">
         <v>45</v>
       </c>
@@ -14232,7 +13633,7 @@
       </c>
       <c r="W47" s="13"/>
       <c r="Z47" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA47" s="12" t="s">
         <v>47</v>
@@ -14244,7 +13645,7 @@
       <c r="AI47" s="13"/>
       <c r="AJ47" s="13"/>
     </row>
-    <row r="48" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="48" spans="1:36" ht="20" hidden="1" customHeight="1">
       <c r="A48" s="16">
         <v>46</v>
       </c>
@@ -14294,7 +13695,7 @@
       </c>
       <c r="W48" s="13"/>
       <c r="Z48" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA48" s="12" t="s">
         <v>47</v>
@@ -14306,7 +13707,7 @@
       <c r="AI48" s="13"/>
       <c r="AJ48" s="13"/>
     </row>
-    <row r="49" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="49" spans="1:36" ht="20" hidden="1" customHeight="1">
       <c r="A49" s="16">
         <v>47</v>
       </c>
@@ -14354,7 +13755,7 @@
       </c>
       <c r="W49" s="13"/>
       <c r="Z49" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA49" s="12" t="s">
         <v>47</v>
@@ -14366,7 +13767,7 @@
       <c r="AI49" s="13"/>
       <c r="AJ49" s="13"/>
     </row>
-    <row r="50" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="50" spans="1:36" ht="20" customHeight="1">
       <c r="A50" s="16">
         <v>48</v>
       </c>
@@ -14414,7 +13815,7 @@
       </c>
       <c r="W50" s="13"/>
       <c r="Z50" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA50" s="12" t="s">
         <v>47</v>
@@ -14426,7 +13827,7 @@
       <c r="AI50" s="13"/>
       <c r="AJ50" s="13"/>
     </row>
-    <row r="51" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="51" spans="1:36" ht="20" customHeight="1">
       <c r="A51" s="16">
         <v>49</v>
       </c>
@@ -14472,7 +13873,7 @@
       </c>
       <c r="W51" s="13"/>
       <c r="Z51" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA51" s="12" t="s">
         <v>47</v>
@@ -14484,7 +13885,7 @@
       <c r="AI51" s="13"/>
       <c r="AJ51" s="13"/>
     </row>
-    <row r="52" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="52" spans="1:36" ht="20" customHeight="1">
       <c r="A52" s="16">
         <v>50</v>
       </c>
@@ -14530,7 +13931,7 @@
       </c>
       <c r="W52" s="13"/>
       <c r="Z52" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA52" s="12" t="s">
         <v>47</v>
@@ -14542,7 +13943,7 @@
       <c r="AI52" s="13"/>
       <c r="AJ52" s="13"/>
     </row>
-    <row r="53" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="53" spans="1:36" ht="20" customHeight="1">
       <c r="A53" s="16">
         <v>51</v>
       </c>
@@ -14588,7 +13989,7 @@
       </c>
       <c r="W53" s="13"/>
       <c r="Z53" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA53" s="12" t="s">
         <v>47</v>
@@ -14600,7 +14001,7 @@
       <c r="AI53" s="13"/>
       <c r="AJ53" s="13"/>
     </row>
-    <row r="54" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="54" spans="1:36" ht="20" customHeight="1">
       <c r="A54" s="16">
         <v>52</v>
       </c>
@@ -14646,7 +14047,7 @@
       </c>
       <c r="W54" s="13"/>
       <c r="Z54" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA54" s="12" t="s">
         <v>47</v>
@@ -14658,7 +14059,7 @@
       <c r="AI54" s="13"/>
       <c r="AJ54" s="13"/>
     </row>
-    <row r="55" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="55" spans="1:36" ht="20" customHeight="1">
       <c r="A55" s="16">
         <v>53</v>
       </c>
@@ -14709,7 +14110,7 @@
       </c>
       <c r="W55" s="13"/>
       <c r="Z55" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA55" s="12" t="s">
         <v>47</v>
@@ -14721,7 +14122,7 @@
       <c r="AI55" s="13"/>
       <c r="AJ55" s="13"/>
     </row>
-    <row r="56" s="12" customFormat="1" ht="20" customHeight="1" spans="1:36">
+    <row r="56" spans="1:36" ht="20" customHeight="1">
       <c r="A56" s="16">
         <v>54</v>
       </c>
@@ -14772,7 +14173,7 @@
       </c>
       <c r="W56" s="13"/>
       <c r="Z56" s="13">
-        <v>43887.4354166667</v>
+        <v>43887.435416666704</v>
       </c>
       <c r="AA56" s="12" t="s">
         <v>47</v>
@@ -14785,108 +14186,123 @@
       <c r="AJ56" s="13"/>
     </row>
   </sheetData>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53 B54:B55 B56:B1048576">
+  <autoFilter ref="A1:AN56" xr:uid="{7E607BFE-5D09-4A08-BBB7-406032DCAAF4}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="城市级"/>
+        <filter val="省级"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53 B54:B55 B56:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 H3 H4 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20 H21 H22 H23 H24 H25 H26 H27 H28 H29 H30 H31 H32 H33 H34 H35 H36 H37 H38 H40 H41 H42 H43 H44 H45 H46 H47 H48 H49 H50 H51 H52 H53 H54:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 H3 H4 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20 H21 H22 H23 H24 H25 H26 H27 H28 H29 H30 H31 H32 H33 H34 H35 H36 H37 H38 H40 H41 H42 H43 H44 H45 H46 H47 H48 H49 H50 H51 H52 H53 H54:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F2 F3 F4 F5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25 F26 F27 F28 F29 F30 F31 F32 F33 F34 F35 F36 F37 F38 F39 F40 F41 F42 F43 F44 F45 F46 F47 F48 F49 F50 F51 F52 F53 F54 F55:F56 F57:F1048576">
-      <formula1>中国各省市区县数据!$E$2:$E$36</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2 AC3 AC4 AC5 AC6 AC7 AC8 AC9 AC10 AC11 AC12 AC13 AC14 AC15 AC16 AC17 AC18 AC19 AC20 AC21 AC22 AC23 AC24 AC25 AC26 AC27 AC28 AC29 AC30 AC31 AC32 AC33 AC34 AC35 AC36 AC37 AC38 AC39 AC40 AC41 AC42 AC43 AC44 AC45 AC46 AC47 AC48 AC49 AC50 AC51 AC52 AC53 AC54:AC1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2 AC3 AC4 AC5 AC6 AC7 AC8 AC9 AC10 AC11 AC12 AC13 AC14 AC15 AC16 AC17 AC18 AC19 AC20 AC21 AC22 AC23 AC24 AC25 AC26 AC27 AC28 AC29 AC30 AC31 AC32 AC33 AC34 AC35 AC36 AC37 AC38 AC39 AC40 AC41 AC42 AC43 AC44 AC45 AC46 AC47 AC48 AC49 AC50 AC51 AC52 AC53 AC54:AC1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R2 I3:R3 I4:R4 I5:R5 I6:R6 I7:R7 I8:R8 I9:R9 I10:R10 I11:R11 I12:R12 I13:R13 I14:R14 I15:R15 I16:R16 I17:R17 I18:R18 I19:R19 I20:R20 I21:R21 I22:R22 I23:R23 I24:R24 I25:R25 I26:R26 I27:R27 I28:R28 I29:R29 I30:R30 I31:R31 I32:N32 O32 P32:R32 I33:N33 O33 P33:R33 I34:L34 N34 O34 P34:R34 I35:L35 N35 O35 P35:R35 I36:N36 O36 P36:R36 I37:N37 O37 P37:R37 I38:N38 O38 P38:R38 I39:N39 O39 P39:R39 I40:N40 O40 P40:R40 I41:R41 I42:R42 I43:R43 I44:R44 I45:R45 I46:R46 I47:R47 I48:R48 I49:R49 I50:R50 I51:R51 I52:R52 I53:R53 I54:R54 I55:J55 K55 L55:N55 O55 P55:R55 M34:M35 I56:R1048576">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R2 I3:R3 I4:R4 I5:R5 I6:R6 I7:R7 I8:R8 I9:R9 I10:R10 I11:R11 I12:R12 I13:R13 I14:R14 I15:R15 I16:R16 I17:R17 I18:R18 I19:R19 I20:R20 I21:R21 I22:R22 I23:R23 I24:R24 I25:R25 I26:R26 I27:R27 I28:R28 I29:R29 I30:R30 I31:R31 I32:N32 O32 P32:R32 I33:N33 O33 P33:R33 I34:L34 N34 O34 P34:R34 I35:L35 N35 O35 P35:R35 I36:N36 O36 P36:R36 I37:N37 O37 P37:R37 I38:N38 O38 P38:R38 I39:N39 O39 P39:R39 I40:N40 O40 P40:R40 I41:R41 I42:R42 I43:R43 I44:R44 I45:R45 I46:R46 I47:R47 I48:R48 I49:R49 I50:R50 I51:R51 I52:R52 I53:R53 I54:R54 I55:J55 K55 L55:N55 O55 P55:R55 M34:M35 I56:R1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2 AK2 AE3 AK3 AE4 AK4 AE5 AK5 AE6 AK6 AE7 AK7 AE8 AK8 AE9 AK9 AE10 AK10 AE11 AK11 AE12 AK12 AE13 AK13 AE14 AK14 AE15 AK15 AA16 AE16 AK16 AA17 AE17 AK17 AA18 AE18 AK18 AA19 AE19 AK19 AA20 AE20 AK20 AA21 AE21 AK21 AA22 AE22 AK22 AA23 AE23 AK23 AA24 AE24 AK24 AA25 AE25 AK25 AE26 AK26 AE27 AK27 AE28 AK28 AE29 AK29 AA30 AE30 AK30 AA31 AE31 AK31 AA32 AE32 AK32 AA33 AE33 AK33 AA34 AE34 AK34 AA35 AE35 AK35 AA36 AE36 AK36 AA37 AE37 AK37 AA38 AE38 AK38 AA39 AE39 AK39 AA40 AE40 AK40 AA41 AE41 AK41 AA42 AE42 AK42 AA43 AE43 AK43 AA44 AE44 AK44 AA45 AE45 AK45 AA46 AE46 AK46 AA47 AE47 AK47 AA48 AE48 AK48 AE49 AK49 AE50 AK50 AA51 AE51 AK51 AA52 AE52 AK52 AA53 AE53 AK53 AA2:AA3 AA4:AA5 AA6:AA7 AA8:AA9 AA10:AA11 AA12:AA13 AA14:AA15 AA26:AA27 AA28:AA29 AA49:AA50 AA54:AA56 AA57:AA1048576 AE54:AE1048576 AK54:AK1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2 AK2 AE3 AK3 AE4 AK4 AE5 AK5 AE6 AK6 AE7 AK7 AE8 AK8 AE9 AK9 AE10 AK10 AE11 AK11 AE12 AK12 AE13 AK13 AE14 AK14 AE15 AK15 AA16 AE16 AK16 AA17 AE17 AK17 AA18 AE18 AK18 AA19 AE19 AK19 AA20 AE20 AK20 AA21 AE21 AK21 AA22 AE22 AK22 AA23 AE23 AK23 AA24 AE24 AK24 AA25 AE25 AK25 AE26 AK26 AE27 AK27 AE28 AK28 AE29 AK29 AA30 AE30 AK30 AA31 AE31 AK31 AA32 AE32 AK32 AA33 AE33 AK33 AA34 AE34 AK34 AA35 AE35 AK35 AA36 AE36 AK36 AA37 AE37 AK37 AA38 AE38 AK38 AA39 AE39 AK39 AA40 AE40 AK40 AA41 AE41 AK41 AA42 AE42 AK42 AA43 AE43 AK43 AA44 AE44 AK44 AA45 AE45 AK45 AA46 AE46 AK46 AA47 AE47 AK47 AA48 AE48 AK48 AE49 AK49 AE50 AK50 AA51 AE51 AK51 AA52 AE52 AK52 AA53 AE53 AK53 AA2:AA3 AA4:AA5 AA6:AA7 AA8:AA9 AA10:AA11 AA12:AA13 AA14:AA15 AA26:AA27 AA28:AA29 AA49:AA50 AA54:AA56 AA57:AA1048576 AE54:AE1048576 AK54:AK1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2 AM2 AG3 AM3 AG4 AM4 AG5 AM5 AG6 AM6 AG7 AM7 AG8 AM8 AG9 AM9 AG10 AM10 AG11 AM11 AG12 AM12 AG13 AM13 AG14 AM14 AG15 AM15 AG16 AM16 AG17 AM17 AG18 AM18 AG19 AM19 AG20 AM20 AG21 AM21 AG22 AM22 AG23 AM23 AG24 AM24 AG25 AM25 AG26 AM26 AG27 AM27 AG28 AM28 AG29 AM29 AG30 AM30 AG31 AM31 AG32 AM32 AG33 AM33 AG34 AM34 AG35 AM35 AG36 AM36 AG37 AM37 AG38 AM38 AG39 AM39 AG40 AM40 AG41 AM41 AG42 AM42 AG43 AM43 AG44 AM44 AG45 AM45 AG46 AM46 AG47 AM47 AG48 AM48 AG49 AM49 AG50 AM50 AG51 AM51 AG52 AM52 AG53 AM53 AG54:AG1048576 AM54:AM1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2 AM2 AG3 AM3 AG4 AM4 AG5 AM5 AG6 AM6 AG7 AM7 AG8 AM8 AG9 AM9 AG10 AM10 AG11 AM11 AG12 AM12 AG13 AM13 AG14 AM14 AG15 AM15 AG16 AM16 AG17 AM17 AG18 AM18 AG19 AM19 AG20 AM20 AG21 AM21 AG22 AM22 AG23 AM23 AG24 AM24 AG25 AM25 AG26 AM26 AG27 AM27 AG28 AM28 AG29 AM29 AG30 AM30 AG31 AM31 AG32 AM32 AG33 AM33 AG34 AM34 AG35 AM35 AG36 AM36 AG37 AM37 AG38 AM38 AG39 AM39 AG40 AM40 AG41 AM41 AG42 AM42 AG43 AM43 AG44 AM44 AG45 AM45 AG46 AM46 AG47 AM47 AG48 AM48 AG49 AM49 AG50 AM50 AG51 AM51 AG52 AM52 AG53 AM53 AG54:AG1048576 AM54:AM1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G56:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G56:G1048576" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>INDIRECT($F56)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="V6" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V7" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V49" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V50" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V41" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V28" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V29" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V51" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V26" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V27" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V42" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V52" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V30" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V31" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V53" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V54" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V55" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V56" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V4" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V5" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V8" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V9" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V10" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V11" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V12" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V13" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V14" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V15" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V25" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V24" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V23" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V22" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V21" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V20" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V19" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V18" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V17" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V16" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V38" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V37" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V36" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V35" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V34" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V33" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V32" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V40" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V48" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V47" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V46" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V45" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V44" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V43" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
-    <hyperlink ref="V39" r:id="rId1" display="http://www.hnwsjsw.gov.cn/contents/858/48755.shtml"/>
+    <hyperlink ref="V6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="V7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="V49" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="V50" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="V41" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="V28" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="V29" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="V51" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="V26" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="V27" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="V42" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="V52" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="V30" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="V31" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="V53" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="V54" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="V55" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="V56" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="V4" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="V5" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="V8" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="V9" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="V10" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="V11" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="V12" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="V13" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="V14" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="V15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="V25" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="V24" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="V23" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="V22" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="V21" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="V20" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="V19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="V18" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="V17" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="V16" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="V38" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="V37" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="V36" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="V35" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="V34" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="V33" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="V32" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="V40" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="V48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="V47" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="V46" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="V45" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="V44" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="V43" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="V39" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-000002000000}">
+          <x14:formula1>
+            <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2 F3 F4 F5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25 F26 F27 F28 F29 F30 F31 F32 F33 F34 F35 F36 F37 F38 F39 F40 F41 F42 F43 F44 F45 F46 F47 F48 F49 F50 F51 F52 F53 F54 F55:F56 F57:F1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN2908"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="U1" workbookViewId="0">
+    <sheetView topLeftCell="U1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.4545454545455" customWidth="1"/>
+    <col min="5" max="5" width="13.4609375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -39311,7 +38727,7 @@
       <c r="F1496" s="3"/>
       <c r="AN1496" s="3"/>
     </row>
-    <row r="1497" s="1" customFormat="1" spans="1:40">
+    <row r="1497" spans="1:40" s="1" customFormat="1">
       <c r="A1497" s="8" t="s">
         <v>42</v>
       </c>
@@ -62170,8 +61586,8 @@
       <c r="AN2908" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>